--- a/raw_data/weekly_water_measurements.xlsx
+++ b/raw_data/weekly_water_measurements.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582BD808-C2AC-4ADA-A1C6-7B456E7AEE9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A1FD38-B5C9-4198-AD4A-371932D76038}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,11 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F253"/>
+  <dimension ref="A1:F289"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F252" sqref="F252"/>
+      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C290" sqref="C290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5434,6 +5434,411 @@
         <v>1700</v>
       </c>
     </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254" s="3">
+        <v>15.2</v>
+      </c>
+      <c r="D254" s="3">
+        <v>81.7</v>
+      </c>
+      <c r="E254" s="2">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="F254">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B255">
+        <v>2</v>
+      </c>
+      <c r="C255" s="3">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B256">
+        <v>3</v>
+      </c>
+      <c r="C256" s="3">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B257">
+        <v>4</v>
+      </c>
+      <c r="C257" s="3">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B258">
+        <v>5</v>
+      </c>
+      <c r="C258" s="3">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B259">
+        <v>6</v>
+      </c>
+      <c r="C259" s="3">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B260">
+        <v>7</v>
+      </c>
+      <c r="C260" s="3">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B261">
+        <v>8</v>
+      </c>
+      <c r="C261" s="3">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B262">
+        <v>9</v>
+      </c>
+      <c r="C262" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B263">
+        <v>10</v>
+      </c>
+      <c r="C263" s="3">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B264">
+        <v>11</v>
+      </c>
+      <c r="C264" s="3">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B265">
+        <v>12</v>
+      </c>
+      <c r="C265" s="3">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B266">
+        <v>13</v>
+      </c>
+      <c r="C266" s="3">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B267">
+        <v>14</v>
+      </c>
+      <c r="C267" s="3">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B268">
+        <v>15</v>
+      </c>
+      <c r="C268" s="3">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B269">
+        <v>16</v>
+      </c>
+      <c r="C269" s="3">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B270">
+        <v>17</v>
+      </c>
+      <c r="C270" s="3">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B271">
+        <v>18</v>
+      </c>
+      <c r="C271" s="3">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B272">
+        <v>19</v>
+      </c>
+      <c r="C272" s="3">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B273">
+        <v>20</v>
+      </c>
+      <c r="C273" s="3">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B274">
+        <v>21</v>
+      </c>
+      <c r="C274" s="3">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B275">
+        <v>22</v>
+      </c>
+      <c r="C275" s="3">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B276">
+        <v>23</v>
+      </c>
+      <c r="C276" s="3">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B277">
+        <v>24</v>
+      </c>
+      <c r="C277" s="3">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B278">
+        <v>25</v>
+      </c>
+      <c r="C278" s="3">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B279">
+        <v>26</v>
+      </c>
+      <c r="C279" s="3">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B280">
+        <v>27</v>
+      </c>
+      <c r="C280" s="3">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B281">
+        <v>28</v>
+      </c>
+      <c r="C281" s="3">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B282">
+        <v>29</v>
+      </c>
+      <c r="C282" s="3">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B283">
+        <v>30</v>
+      </c>
+      <c r="C283" s="3">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B284">
+        <v>31</v>
+      </c>
+      <c r="C284" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B285">
+        <v>32</v>
+      </c>
+      <c r="C285" s="3">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B286">
+        <v>33</v>
+      </c>
+      <c r="C286" s="3">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B287">
+        <v>34</v>
+      </c>
+      <c r="C287" s="3">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B288">
+        <v>35</v>
+      </c>
+      <c r="C288" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B289">
+        <v>36</v>
+      </c>
+      <c r="C289" s="3">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
